--- a/output/CodeSystem-cs-thcc-nationality.xlsx
+++ b/output/CodeSystem-cs-thcc-nationality.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-30T17:25:25+07:00</t>
+    <t>2022-07-30T19:26:14+07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-cs-thcc-nationality.xlsx
+++ b/output/CodeSystem-cs-thcc-nationality.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-30T19:26:14+07:00</t>
+    <t>2022-07-31T02:30:06+07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-cs-thcc-nationality.xlsx
+++ b/output/CodeSystem-cs-thcc-nationality.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://terms.sil-th.org/Codesystem/cs-thcc-nationality</t>
+    <t>https://terms.sil-th.org/Codesystem/cs-thcc-nationality</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31T02:30:06+07:00</t>
+    <t>2022-07-31T15:19:09+07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-cs-thcc-nationality.xlsx
+++ b/output/CodeSystem-cs-thcc-nationality.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://terms.sil-th.org/Codesystem/cs-thcc-nationality</t>
+    <t>https://terms.sil-th.org/CodeSystem/cs-thcc-nationality</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31T15:19:09+07:00</t>
+    <t>2022-08-02T11:14:26+07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-cs-thcc-nationality.xlsx
+++ b/output/CodeSystem-cs-thcc-nationality.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T11:14:26+07:00</t>
+    <t>2022-08-07T12:07:42+07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-cs-thcc-nationality.xlsx
+++ b/output/CodeSystem-cs-thcc-nationality.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-07T12:07:42+07:00</t>
+    <t>2022-08-10T01:32:39+07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-cs-thcc-nationality.xlsx
+++ b/output/CodeSystem-cs-thcc-nationality.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T01:32:39+07:00</t>
+    <t>2022-08-11T00:50:32+07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-cs-thcc-nationality.xlsx
+++ b/output/CodeSystem-cs-thcc-nationality.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T00:50:32+07:00</t>
+    <t>2022-08-14T01:41:38+07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-cs-thcc-nationality.xlsx
+++ b/output/CodeSystem-cs-thcc-nationality.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-14T01:41:38+07:00</t>
+    <t>2022-08-14T22:14:52+07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-cs-thcc-nationality.xlsx
+++ b/output/CodeSystem-cs-thcc-nationality.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-14T22:14:52+07:00</t>
+    <t>2022-08-15T02:16:31+07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-cs-thcc-nationality.xlsx
+++ b/output/CodeSystem-cs-thcc-nationality.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T02:16:31+07:00</t>
+    <t>2022-08-16T00:23:13+07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-cs-thcc-nationality.xlsx
+++ b/output/CodeSystem-cs-thcc-nationality.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T00:23:13+07:00</t>
+    <t>2022-08-16T21:51:46+07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-cs-thcc-nationality.xlsx
+++ b/output/CodeSystem-cs-thcc-nationality.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T21:51:46+07:00</t>
+    <t>2022-08-16T23:36:06+07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-cs-thcc-nationality.xlsx
+++ b/output/CodeSystem-cs-thcc-nationality.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T23:36:06+07:00</t>
+    <t>2022-08-17T01:34:31+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
